--- a/output/kitti_models/second/second_kitti_more_metrics_stat.xlsx
+++ b/output/kitti_models/second/second_kitti_more_metrics_stat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Research\Projects\BeamReduction\OpenPCDet\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C8BCF933-37DC-4C5E-9A63-5F696B57CB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB212576-2795-47CD-9C71-AD9D0B4AE448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9C2D08BA-5464-4414-845F-BD5ABAC84C2A}"/>
   </bookViews>
@@ -1445,6 +1445,2919 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>AOS/Hard_R40 Standard Deviation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Car_aos/hard_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$T$2:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44230620399999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.343034179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4691614190000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.0251209189999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.943609269</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5420037999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7670806109999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7841485650000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D9BB-48CA-921D-746A18F43996}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pedestrian_aos/hard_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$AF$2:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.233457869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1944935719999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5313731060000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0088732550000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.0906327610000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3719082450000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2573945459999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2998462560000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D9BB-48CA-921D-746A18F43996}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$AR$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclist_aos/hard_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$AR$2:$AR$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8190538379999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0182275470000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7869383289999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.107438975</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7053445629999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.637259534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.9258336719999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0264021309999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D9BB-48CA-921D-746A18F43996}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1065364352"/>
+        <c:axId val="1065370112"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1065364352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t># Beams Removed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1065370112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1065370112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>AOS/Hard_R40 SD</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1065364352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3D/Easy_R40 Standard Deviation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Car_3d/easy_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$V$2:$V$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95703173100000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.573404767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6503650749999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2864687290000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.6360143730000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.133122287</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.9607526850000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.7237584110000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-82D0-4153-AE96-AEA467D4D53A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pedestrian_3d/easy_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$AH$2:$AH$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6654023490000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1340289530000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6110947449999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7639955650000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.8444978360000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.7782406509999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7346439350000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.1184848800000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-82D0-4153-AE96-AEA467D4D53A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$AT$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclist_3d/easy_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$AT$2:$AT$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6688250200000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.604604777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.8018930470000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.398038219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5607375280000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.559763298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.781564039999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.31822786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-82D0-4153-AE96-AEA467D4D53A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1040940848"/>
+        <c:axId val="1040939408"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1040940848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t># Beams Removed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040939408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1040939408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>3D/Easy_R40  SD</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1040940848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3D/Moderate_R40 Standard Deviation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Car_3d/moderate_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$X$2:$X$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.028703148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7629013069999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0587623110000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5903902509999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8324566019999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.1420116519999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.3438370080000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7844401029999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69E8-465B-AB7E-3C35EB6897EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pedestrian_3d/moderate_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$AJ$2:$AJ$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.550451952</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.798068131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2135781569999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1756537099999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.9306429950000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.7474943119999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.8303743389999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.1185769570000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-69E8-465B-AB7E-3C35EB6897EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$AV$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclist_3d/moderate_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$AV$2:$AV$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8600697689999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.7453338540000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6075898129999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.5749137810000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.1198691370000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.3034901860000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1270825270000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2603172039999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-69E8-465B-AB7E-3C35EB6897EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1056040000"/>
+        <c:axId val="1056039040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1056040000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t># Beams Removed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056039040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1056039040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>3D/Moderate_R40  SD</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1056040000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>3D/Hard_R40 Standard Deviation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Car_3d/hard_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$Z$2:$Z$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.062164033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8072214049999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.126613935</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.560335308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8090539110000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2435534370000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.2634876290000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.607228417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86C8-4130-966A-D16D7E1EF5E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$AL$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pedestrian_3d/hard_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$AL$2:$AL$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.4183649819999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5613768590000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8485535460000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7064618429999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3065795280000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0505432529999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0758207750000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.3617439549999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-86C8-4130-966A-D16D7E1EF5E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$AX$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclist_3d/hard_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$AX$2:$AX$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6548758760000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5171180469999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.2842444249999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.1297148379999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6556895870000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.8691413140000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.562364949</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7677539449999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-86C8-4130-966A-D16D7E1EF5E0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1057623840"/>
+        <c:axId val="1057622880"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1057623840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t># Beams Removed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1057622880"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1057622880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>3D/Hard_R40 SD</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1057623840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -5699,7 +8612,1606 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>AOS/Easy_R40</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Standard Deviation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Car_aos/easy_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$P$2:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.233923244</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.673555393</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.532696136</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.1042251059999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9894917240000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5580068499999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.0172162809999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2320641309999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7489-40C9-8668-FD7C7BED65A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pedestrian_aos/easy_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$AB$2:$AB$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1182024859999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1050195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4452633750000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2433926499999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.6729168919999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.2068128229999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2465234120000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.8309354899999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7489-40C9-8668-FD7C7BED65A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$AN$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclist_aos/easy_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$AN$2:$AN$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3704921349999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0531265790000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6606543409999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.8550580270000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.2764947590000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.1911536349999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.78082794</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12.54817074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7489-40C9-8668-FD7C7BED65A4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="839331712"/>
+        <c:axId val="1084955264"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="839331712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t># Beams Removed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1084955264"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1084955264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>AOS/Easy_R40  SD</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="839331712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>AOS/Moderate_R40 Standard Deviation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Car_aos/moderate_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$R$2:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92432203000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2931118340000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3317771760000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9472861990000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.8982223390000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.4587577530000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.7294336240000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.7758415369999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6B14-409C-89DE-99175F27DBA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Pedestrian_aos/moderate_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$AD$2:$AD$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.211995674</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2119583189999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5383477839999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1232741150000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3855697920000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.783906161</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.7378079380000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.9988204130000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6B14-409C-89DE-99175F27DBA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>second_kitti_more_metrics_stat!$AP$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclist_aos/moderate_R40_std</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$A$2:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>second_kitti_more_metrics_stat!$AP$2:$AP$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0274744820000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.2632019000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.058089754</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.4955315200000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.1359666990000008</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0897108749999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4461536079999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.4532595859999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6B14-409C-89DE-99175F27DBA1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1037122064"/>
+        <c:axId val="1037112464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1037122064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t># Beams Removed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037112464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1037112464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>AOS/Moderate_R40  SD</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1037122064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5979,6 +10491,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -6495,7 +11087,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7011,7 +11603,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7527,7 +12119,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8043,7 +12635,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8559,7 +13151,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9075,7 +13667,3103 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9632,13 +17320,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>20002</xdr:colOff>
+      <xdr:colOff>16192</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>56197</xdr:rowOff>
+      <xdr:rowOff>60007</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>324802</xdr:colOff>
+      <xdr:colOff>320992</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>79057</xdr:rowOff>
     </xdr:to>
@@ -9845,6 +17533,222 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5876FB00-2D0F-7879-681C-55A06E012D86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8219997-EB06-1569-BE4F-D7ABCCA1349C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F045B3B-E0E9-F9D8-09BD-D983D71F59AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>7626</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F926FACD-E0BD-0555-6768-164BC52ADDD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>6</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFA77A3E-59A5-983E-8945-1CEF5E4AA58F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>6</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>6</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE2FE24-F2FD-F067-5AC8-13B661589CEC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10167,8 +18071,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7151AF6F-585A-4CC2-AAD0-AB67E0955C30}">
   <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
-      <selection activeCell="AX15" sqref="AX15"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="W10" sqref="W10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11996,6 +19903,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>